--- a/forecast_summary_B0CKS6BMH7.xlsx
+++ b/forecast_summary_B0CKS6BMH7.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>71.26515178916871</v>
       </c>
       <c r="D2" t="n">
-        <v>94.63364855965125</v>
+        <v>95.74641654901215</v>
       </c>
       <c r="E2" t="n">
         <v>57</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>95.73111813742702</v>
       </c>
       <c r="D3" t="n">
-        <v>119.3423570897713</v>
+        <v>117.4637964361451</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>118.3302082469575</v>
       </c>
       <c r="D4" t="n">
-        <v>141.4783664569282</v>
+        <v>142.2397994143761</v>
       </c>
       <c r="E4" t="n">
         <v>55</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>133.1194571062223</v>
       </c>
       <c r="D5" t="n">
-        <v>156.8602649594837</v>
+        <v>155.2214505793612</v>
       </c>
       <c r="E5" t="n">
         <v>51</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>144.4949964735464</v>
       </c>
       <c r="D6" t="n">
-        <v>167.4857562617262</v>
+        <v>167.5063324065682</v>
       </c>
       <c r="E6" t="n">
         <v>43</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>154.8497685803802</v>
       </c>
       <c r="D7" t="n">
-        <v>177.5656390082932</v>
+        <v>177.8845243896731</v>
       </c>
       <c r="E7" t="n">
         <v>40</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>157.4429455795893</v>
       </c>
       <c r="D8" t="n">
-        <v>181.1761182855605</v>
+        <v>179.1484424747249</v>
       </c>
       <c r="E8" t="n">
         <v>41</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>149.1089420575823</v>
       </c>
       <c r="D9" t="n">
-        <v>173.0160304681375</v>
+        <v>172.1503151284267</v>
       </c>
       <c r="E9" t="n">
         <v>40</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>145.5649253465355</v>
       </c>
       <c r="D10" t="n">
-        <v>168.8047353720041</v>
+        <v>169.3695043381365</v>
       </c>
       <c r="E10" t="n">
         <v>39</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>171.985392764327</v>
       </c>
       <c r="D11" t="n">
-        <v>196.8727145744822</v>
+        <v>196.3475915813667</v>
       </c>
       <c r="E11" t="n">
         <v>39</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>232.7504660419232</v>
       </c>
       <c r="D12" t="n">
-        <v>257.3969625090795</v>
+        <v>257.200319326124</v>
       </c>
       <c r="E12" t="n">
         <v>40</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>297.5888810175436</v>
       </c>
       <c r="D13" t="n">
-        <v>322.8574142979184</v>
+        <v>325.1635809012302</v>
       </c>
       <c r="E13" t="n">
         <v>41</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>327.9794089783396</v>
       </c>
       <c r="D14" t="n">
-        <v>357.1684014960053</v>
+        <v>355.9413390297981</v>
       </c>
       <c r="E14" t="n">
         <v>40</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>317.9033992968302</v>
       </c>
       <c r="D15" t="n">
-        <v>345.6897966575036</v>
+        <v>346.5027205963363</v>
       </c>
       <c r="E15" t="n">
         <v>40</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>299.728192692198</v>
       </c>
       <c r="D16" t="n">
-        <v>331.0059985066678</v>
+        <v>327.8991061162661</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>304.4973068457808</v>
       </c>
       <c r="D17" t="n">
-        <v>337.4370201001402</v>
+        <v>335.2044228964455</v>
       </c>
       <c r="E17" t="n">
         <v>39</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>322.7320793982012</v>
       </c>
       <c r="D18" t="n">
-        <v>353.9216392252687</v>
+        <v>356.8231068939033</v>
       </c>
       <c r="E18" t="n">
         <v>38</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>314.6767696207396</v>
       </c>
       <c r="D19" t="n">
-        <v>347.9498575127762</v>
+        <v>348.5574553451397</v>
       </c>
       <c r="E19" t="n">
         <v>37</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>259.6570638365356</v>
       </c>
       <c r="D20" t="n">
-        <v>291.8762180020832</v>
+        <v>291.2709949609398</v>
       </c>
       <c r="E20" t="n">
         <v>40</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>184.7177771084087</v>
       </c>
       <c r="D21" t="n">
-        <v>211.6560652575621</v>
+        <v>211.0602710100345</v>
       </c>
       <c r="E21" t="n">
         <v>37</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z790 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
